--- a/02 CLanguage/009 结构体 指针读取.xlsx
+++ b/02 CLanguage/009 结构体 指针读取.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF84E19-BC08-4100-B939-7E6E61D780F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7648516C-811A-42F2-A313-CD361E38C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   指针读取数据</t>
+    <t xml:space="preserve">   **指针读取数据**</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76AACAC-E58B-4D2E-93F7-6C0B9CABBEC2}">
   <dimension ref="B3:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
